--- a/data/trans_bre/Predimed_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-5.022751836276795</v>
+        <v>-5.022751836276818</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.05493233070548115</v>
+        <v>-0.05493233070548137</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.788376805508953</v>
+        <v>-8.202706059312181</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.09436527052605473</v>
+        <v>-0.08866708481235996</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.153974598823245</v>
+        <v>-1.498501498166276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>-0.01319293560897119</v>
+        <v>-0.01677469556172127</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1565474729780636</v>
+        <v>0.1565474729780747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.001807190639319166</v>
+        <v>0.001807190639319294</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.609442088782469</v>
+        <v>-2.489143283626231</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02949593021182423</v>
+        <v>-0.02837125428850416</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.399585109120893</v>
+        <v>3.379936671166854</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04003301240406332</v>
+        <v>0.03995371105077298</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-1.25214745160771</v>
+        <v>-1.252147451607721</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.01476823473964223</v>
+        <v>-0.01476823473964236</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.5913386355929</v>
+        <v>-4.687751031454105</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.05303198032557519</v>
+        <v>-0.0536431066543713</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.996792455713898</v>
+        <v>2.318848203014674</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.02416908179977915</v>
+        <v>0.02824471483848817</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-3.338810641296719</v>
+        <v>-3.338810641296741</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.04640030519854486</v>
+        <v>-0.04640030519854517</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.438382365623074</v>
+        <v>-7.455150303006697</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1007266946779413</v>
+        <v>-0.1002620053669195</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.261808561010056</v>
+        <v>1.42705921081504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01821614787999422</v>
+        <v>0.01924534905255884</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.262417897205137</v>
+        <v>-1.262417897205148</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.0152957615075412</v>
+        <v>-0.01529576150754133</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.990564506937843</v>
+        <v>-3.068899238628101</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.03561683724311338</v>
+        <v>-0.03670934771858281</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8310314391221412</v>
+        <v>0.532902115470775</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.0100916862053892</v>
+        <v>0.006524319672906656</v>
       </c>
     </row>
     <row r="19">
